--- a/spliced/struggle/2023-03-25_18-15-31/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-31/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.559234559535978</v>
+        <v>-7.118332028388976</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.451132655143738</v>
+        <v>-7.95554971694946</v>
       </c>
       <c r="E2" t="n">
-        <v>1.616835504770279</v>
+        <v>2.69339257478714</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.86665141582489</v>
+        <v>-0.1843285858631134</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9056077003479004</v>
+        <v>-2.109012365341187</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72797155380249</v>
+        <v>-1.700190663337708</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-8.968847125768663</v>
+        <v>-8.024936378002169</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.099803924560549</v>
+        <v>-5.88237792253494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8352741301059722</v>
+        <v>-0.4918670058250485</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.430188298225403</v>
+        <v>-0.3310889601707458</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2281174659729</v>
+        <v>-3.295770645141602</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2075414657592773</v>
+        <v>-1.143387079238892</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-9.520569562911987</v>
+        <v>-5.887924194335933</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.647500991821289</v>
+        <v>-5.405047655105592</v>
       </c>
       <c r="E4" t="n">
-        <v>4.358519792556764</v>
+        <v>-3.775259375572207</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.063363671302795</v>
+        <v>-0.3715587854385376</v>
       </c>
       <c r="G4" t="n">
-        <v>2.087631940841675</v>
+        <v>-2.42528772354126</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9077457785606384</v>
+        <v>-1.059240341186523</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.404734849929808</v>
+        <v>2.069207787513737</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.379530906677244</v>
+        <v>-3.849987745285032</v>
       </c>
       <c r="E5" t="n">
-        <v>9.517022371292116</v>
+        <v>-9.244750261306768</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.475545048713684</v>
+        <v>-0.6349944472312927</v>
       </c>
       <c r="G5" t="n">
-        <v>2.234697818756104</v>
+        <v>-7.78822660446167</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.367421865463257</v>
+        <v>-1.318247199058533</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.40164387226105</v>
+        <v>8.762776851654046</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.939785599708556</v>
+        <v>-1.275362730026247</v>
       </c>
       <c r="E6" t="n">
-        <v>12.10228085517884</v>
+        <v>-14.43722319602966</v>
       </c>
       <c r="F6" t="n">
-        <v>0.275958389043808</v>
+        <v>0.4980078935623169</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1151480972766876</v>
+        <v>-0.0974330082535743</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.477530360221863</v>
+        <v>0.2806925773620605</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.86206918954849</v>
+        <v>1.67717647552489</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.620265662670138</v>
+        <v>-3.68832957744599</v>
       </c>
       <c r="E7" t="n">
-        <v>12.4763557612896</v>
+        <v>-9.681065678596497</v>
       </c>
       <c r="F7" t="n">
-        <v>1.403310179710388</v>
+        <v>-0.831234872341156</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.366963744163513</v>
+        <v>2.706896543502808</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4318817257881164</v>
+        <v>1.08245325088501</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.455067157745361</v>
+        <v>-9.187725067138672</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.44985294342041</v>
+        <v>-9.568089485168455</v>
       </c>
       <c r="E8" t="n">
-        <v>3.601668119430542</v>
+        <v>-11.71019172668457</v>
       </c>
       <c r="F8" t="n">
-        <v>4.130823612213135</v>
+        <v>0.7096726894378662</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.414444923400879</v>
+        <v>3.787517309188842</v>
       </c>
       <c r="H8" t="n">
-        <v>1.59512186050415</v>
+        <v>0.2267837226390838</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.467438399791721</v>
+        <v>-7.743325769901275</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.16471409797668</v>
+        <v>-9.975353479385372</v>
       </c>
       <c r="E9" t="n">
-        <v>2.68689438700676</v>
+        <v>-2.217791140079495</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.218842476606369</v>
+        <v>-1.536326050758362</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7496843934059143</v>
+        <v>1.956906795501709</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.522428870201111</v>
+        <v>0.3100140988826751</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-7.118332028388976</v>
+        <v>-6.245171070098876</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.95554971694946</v>
+        <v>-8.684671878814695</v>
       </c>
       <c r="E10" t="n">
-        <v>2.69339257478714</v>
+        <v>-0.8914805054664612</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1843285858631134</v>
+        <v>0.8593347072601318</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.109012365341187</v>
+        <v>7.671703815460205</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.700190663337708</v>
+        <v>1.616807579994202</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-8.024936378002169</v>
+        <v>-1.642100766301147</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.88237792253494</v>
+        <v>-16.44720804691316</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4918670058250485</v>
+        <v>17.28287854790691</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3310889601707458</v>
+        <v>5.033376693725586</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.295770645141602</v>
+        <v>4.168544292449951</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.143387079238892</v>
+        <v>0.3526219725608825</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-5.887924194335933</v>
+        <v>3.432755649089821</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.405047655105592</v>
+        <v>-16.13965225219725</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.775259375572207</v>
+        <v>17.14644360542294</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3715587854385376</v>
+        <v>-0.6580545902252197</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.42528772354126</v>
+        <v>1.885893702507019</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.059240341186523</v>
+        <v>0.1637118905782699</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.069207787513737</v>
+        <v>2.014435052871684</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.849987745285032</v>
+        <v>-10.68784558773041</v>
       </c>
       <c r="E13" t="n">
-        <v>-9.244750261306768</v>
+        <v>6.156565487384797</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6349944472312927</v>
+        <v>-2.827084302902222</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.78822660446167</v>
+        <v>-3.540880441665649</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.318247199058533</v>
+        <v>-0.5829181671142578</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.762776851654046</v>
+        <v>-6.789637804031393</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.275362730026247</v>
+        <v>-9.379580616950978</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.43722319602966</v>
+        <v>5.642722845077509</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4980078935623169</v>
+        <v>-1.010065674781799</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0974330082535743</v>
+        <v>-4.767192363739014</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2806925773620605</v>
+        <v>-0.09926560521125791</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.67717647552489</v>
+        <v>-11.7663733065128</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.68832957744599</v>
+        <v>-6.984511554241188</v>
       </c>
       <c r="E15" t="n">
-        <v>-9.681065678596497</v>
+        <v>3.816117525100708</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.831234872341156</v>
+        <v>-1.965306162834168</v>
       </c>
       <c r="G15" t="n">
-        <v>2.706896543502808</v>
+        <v>-0.784503698348999</v>
       </c>
       <c r="H15" t="n">
-        <v>1.08245325088501</v>
+        <v>1.217912554740906</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-9.187725067138672</v>
+        <v>-1.357394456863403</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.568089485168455</v>
+        <v>-10.09910678863525</v>
       </c>
       <c r="E16" t="n">
-        <v>-11.71019172668457</v>
+        <v>3.819830894470215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7096726894378662</v>
+        <v>-0.3843869566917419</v>
       </c>
       <c r="G16" t="n">
-        <v>3.787517309188842</v>
+        <v>-3.860210180282593</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2267837226390838</v>
+        <v>2.725528001785278</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-7.743325769901275</v>
+        <v>1.284981921315195</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.975353479385372</v>
+        <v>-13.9884957075119</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.217791140079495</v>
+        <v>-13.69542229175569</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.536326050758362</v>
+        <v>4.380514621734619</v>
       </c>
       <c r="G17" t="n">
-        <v>1.956906795501709</v>
+        <v>-3.570049285888672</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3100140988826751</v>
+        <v>1.001513600349426</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-6.245171070098876</v>
+        <v>1.272318005561828</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.684671878814695</v>
+        <v>-9.928469419479365</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8914805054664612</v>
+        <v>-8.66020488739013</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8593347072601318</v>
+        <v>0.96409809589386</v>
       </c>
       <c r="G18" t="n">
-        <v>7.671703815460205</v>
+        <v>-0.7756461501121521</v>
       </c>
       <c r="H18" t="n">
-        <v>1.616807579994202</v>
+        <v>-0.2683225572109222</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.642100766301147</v>
+        <v>2.418770149350169</v>
       </c>
       <c r="D19" t="n">
-        <v>-16.44720804691316</v>
+        <v>-4.946553826332086</v>
       </c>
       <c r="E19" t="n">
-        <v>17.28287854790691</v>
+        <v>-8.305895447731023</v>
       </c>
       <c r="F19" t="n">
-        <v>5.033376693725586</v>
+        <v>-0.6479753255844116</v>
       </c>
       <c r="G19" t="n">
-        <v>4.168544292449951</v>
+        <v>0.6890559792518616</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3526219725608825</v>
+        <v>1.091005325317383</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.432755649089821</v>
+        <v>-0.9577411413192878</v>
       </c>
       <c r="D20" t="n">
-        <v>-16.13965225219725</v>
+        <v>-7.853628158569351</v>
       </c>
       <c r="E20" t="n">
-        <v>17.14644360542294</v>
+        <v>-5.728095054626454</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6580545902252197</v>
+        <v>-1.356426239013672</v>
       </c>
       <c r="G20" t="n">
-        <v>1.885893702507019</v>
+        <v>3.433979034423828</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1637118905782699</v>
+        <v>-1.384373307228088</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.014435052871684</v>
+        <v>-5.118649840354919</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.68784558773041</v>
+        <v>-10.2695299386978</v>
       </c>
       <c r="E21" t="n">
-        <v>6.156565487384797</v>
+        <v>-1.659017741680144</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.827084302902222</v>
+        <v>0.2755002379417419</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.540880441665649</v>
+        <v>2.776687860488892</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.5829181671142578</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-6.789637804031393</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-9.379580616950978</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.642722845077509</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-1.010065674781799</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-4.767192363739014</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.09926560521125791</v>
+        <v>-1.657124638557434</v>
       </c>
     </row>
   </sheetData>
